--- a/csv/xls/travelsky_0904H_except.xlsx
+++ b/csv/xls/travelsky_0904H_except.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>business_class</t>
+          <t>business_short</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>批量旅客检索页面加载</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>业务信息查询</t>
+          <t>业务信息查询入口</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>个人中心页面加载</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>批量旅客检索页面加载</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>业务信息查询</t>
+          <t>业务信息查询入口</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>座位处理按钮</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>座位处理</t>
+          <t>座位处理入口</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>座位处理-确定按钮</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>从其他页面返回检索页刷新</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>座位处理按钮</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>座位处理</t>
+          <t>座位处理入口</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>座位处理-确定按钮</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>从其他页面返回检索页刷新</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>座位处理按钮</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>座位处理</t>
+          <t>座位处理入口</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>座位处理-确定按钮</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>从其他页面返回检索页刷新</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>批量旅客检索页面加载</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>业务信息查询</t>
+          <t>业务信息查询入口</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3766,7 +3766,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3966,7 +3966,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>已登机旅客页面加载</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>已/未登机查询入口</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>已登机旅客页面加载</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>已/未登机查询入口</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4691,7 +4691,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5041,7 +5041,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5091,7 +5091,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5366,7 +5366,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>座位处理按钮</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5476,7 +5476,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>座位处理</t>
+          <t>座位处理入口</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5591,7 +5591,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5616,7 +5616,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5666,7 +5666,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5716,7 +5716,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>管理PSM按钮</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>管理旅客备注</t>
+          <t>管理旅客备注入口</t>
         </is>
       </c>
     </row>
@@ -5816,7 +5816,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>更多按钮-备注页面</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>从其他页面返回检索页刷新</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6066,7 +6066,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6141,7 +6141,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6266,7 +6266,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -6566,7 +6566,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -6666,7 +6666,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -6691,7 +6691,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -6941,7 +6941,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -7016,7 +7016,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -7091,7 +7091,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询-刷新</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询-刷新</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询-刷新</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -7166,7 +7166,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询-刷新</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>未登机查询按钮</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>已/未登机查询入口</t>
         </is>
       </c>
     </row>
@@ -7216,7 +7216,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -7266,7 +7266,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -7291,7 +7291,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -7316,7 +7316,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -7366,7 +7366,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -7416,7 +7416,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -7441,7 +7441,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -7466,7 +7466,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -7541,7 +7541,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -7566,7 +7566,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -7641,7 +7641,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -7691,7 +7691,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>未登机查询按钮</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>已/未登机查询入口</t>
         </is>
       </c>
     </row>
@@ -7816,7 +7816,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -7866,7 +7866,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -7891,7 +7891,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -7916,7 +7916,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -7966,7 +7966,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -7991,7 +7991,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -8016,7 +8016,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -8026,7 +8026,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -8076,7 +8076,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -8101,7 +8101,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -8126,7 +8126,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8141,7 +8141,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -8151,7 +8151,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8166,7 +8166,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -8216,7 +8216,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>批量旅客检索页面加载</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -8226,7 +8226,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>业务信息查询</t>
+          <t>业务信息查询入口</t>
         </is>
       </c>
     </row>
@@ -8266,7 +8266,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -8316,7 +8316,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -8341,7 +8341,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -8366,7 +8366,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -8416,7 +8416,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -8441,7 +8441,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>座位控制查询页面</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>座位锁放</t>
+          <t>座位锁放入口</t>
         </is>
       </c>
     </row>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -8516,7 +8516,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>座位处理按钮</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -8526,7 +8526,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>座位处理</t>
+          <t>座位处理入口</t>
         </is>
       </c>
     </row>
@@ -8541,7 +8541,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>从其他页面返回检索页刷新</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -8566,7 +8566,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>座位图/锁放按钮</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>座位锁放</t>
+          <t>座位锁放入口</t>
         </is>
       </c>
     </row>
@@ -8591,7 +8591,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>从其他页面返回检索页刷新</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -8616,7 +8616,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>批量旅客检索页面加载</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -8626,7 +8626,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>业务信息查询</t>
+          <t>业务信息查询入口</t>
         </is>
       </c>
     </row>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -8691,7 +8691,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>座位处理按钮</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>座位处理</t>
+          <t>座位处理入口</t>
         </is>
       </c>
     </row>
@@ -8716,7 +8716,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>座位处理-确定按钮</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -8741,7 +8741,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>从其他页面返回检索页刷新</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8816,7 +8816,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -8826,7 +8826,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8841,7 +8841,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -8851,7 +8851,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8866,7 +8866,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -8876,7 +8876,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8891,7 +8891,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -8926,7 +8926,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -8951,7 +8951,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8966,7 +8966,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -8991,7 +8991,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -9041,7 +9041,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -9091,7 +9091,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -9116,7 +9116,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>已登机旅客页面加载</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -9126,7 +9126,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>已/未登机查询入口</t>
         </is>
       </c>
     </row>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -9166,7 +9166,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -9191,7 +9191,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -9216,7 +9216,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -9316,7 +9316,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -9341,7 +9341,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -9366,7 +9366,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -9416,7 +9416,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -9516,7 +9516,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -9541,7 +9541,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -9566,7 +9566,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -9591,7 +9591,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -9616,7 +9616,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -9641,7 +9641,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -9666,7 +9666,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -9691,7 +9691,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -9716,7 +9716,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -9741,7 +9741,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>已登机旅客页面加载</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>已/未登机查询入口</t>
         </is>
       </c>
     </row>
@@ -9766,7 +9766,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -9791,7 +9791,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -9816,7 +9816,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -9841,7 +9841,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -9866,7 +9866,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -9891,7 +9891,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -9966,7 +9966,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -9991,7 +9991,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -10066,7 +10066,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -10091,7 +10091,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -10166,7 +10166,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -10191,7 +10191,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -10241,7 +10241,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -10266,7 +10266,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -10291,7 +10291,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -10316,7 +10316,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>座位处理按钮</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -10326,7 +10326,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>座位处理</t>
+          <t>座位处理入口</t>
         </is>
       </c>
     </row>
@@ -10341,7 +10341,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>座位处理-确定按钮</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -10366,7 +10366,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>从其他页面返回检索页刷新</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -10391,7 +10391,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -10416,7 +10416,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -10466,7 +10466,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -10491,7 +10491,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -10516,7 +10516,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>批量旅客检索页面加载</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -10526,7 +10526,7 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>业务信息查询</t>
+          <t>业务信息查询入口</t>
         </is>
       </c>
     </row>
@@ -10566,7 +10566,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -10641,7 +10641,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -10666,7 +10666,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -10691,7 +10691,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -10716,7 +10716,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -10766,7 +10766,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -10826,7 +10826,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -10841,7 +10841,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -10851,7 +10851,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -10866,7 +10866,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -10891,7 +10891,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -10901,7 +10901,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -10916,7 +10916,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -10926,7 +10926,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -10966,7 +10966,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -10976,7 +10976,7 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -10991,7 +10991,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -11001,7 +11001,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -11016,7 +11016,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -11026,7 +11026,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -11041,7 +11041,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -11066,7 +11066,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -11091,7 +11091,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -11101,7 +11101,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -11116,7 +11116,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -11141,7 +11141,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -11166,7 +11166,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -11191,7 +11191,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -11216,7 +11216,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -11241,7 +11241,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -11251,7 +11251,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -11266,7 +11266,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -11276,7 +11276,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -11291,7 +11291,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -11366,7 +11366,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -11391,7 +11391,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -11441,7 +11441,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -11466,7 +11466,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -11491,7 +11491,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -11516,7 +11516,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -11566,7 +11566,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -11591,7 +11591,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -11616,7 +11616,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -11666,7 +11666,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -11716,7 +11716,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -11741,7 +11741,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -11766,7 +11766,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -11791,7 +11791,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -11816,7 +11816,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -11841,7 +11841,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -11891,7 +11891,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -11916,7 +11916,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -11941,7 +11941,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -11966,7 +11966,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -11991,7 +11991,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -12016,7 +12016,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -12066,7 +12066,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -12091,7 +12091,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -12116,7 +12116,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -12141,7 +12141,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -12166,7 +12166,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -12191,7 +12191,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -12216,7 +12216,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -12241,7 +12241,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -12266,7 +12266,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -12291,7 +12291,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -12341,7 +12341,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -12366,7 +12366,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -12391,7 +12391,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -12441,7 +12441,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>座位控制查询页面</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -12451,7 +12451,7 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>座位锁放</t>
+          <t>座位锁放入口</t>
         </is>
       </c>
     </row>
@@ -12466,7 +12466,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -12491,7 +12491,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>座位处理按钮</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -12501,7 +12501,7 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>座位处理</t>
+          <t>座位处理入口</t>
         </is>
       </c>
     </row>
@@ -12516,7 +12516,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>座位处理-确定按钮</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -12541,7 +12541,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>从其他页面返回检索页刷新</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -12566,7 +12566,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -12591,7 +12591,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -12641,7 +12641,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -12666,7 +12666,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -12691,7 +12691,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -12716,7 +12716,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -12741,7 +12741,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -12766,7 +12766,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -12791,7 +12791,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -12816,7 +12816,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -12841,7 +12841,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -12866,7 +12866,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -12891,7 +12891,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -12941,7 +12941,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -12966,7 +12966,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -12991,7 +12991,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -13016,7 +13016,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -13041,7 +13041,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -13091,7 +13091,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -13116,7 +13116,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -13126,7 +13126,7 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13141,7 +13141,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -13151,7 +13151,7 @@
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13166,7 +13166,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -13176,7 +13176,7 @@
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13191,7 +13191,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -13201,7 +13201,7 @@
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13216,7 +13216,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -13226,7 +13226,7 @@
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13241,7 +13241,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -13251,7 +13251,7 @@
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13266,7 +13266,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13291,7 +13291,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -13301,7 +13301,7 @@
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13316,7 +13316,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -13326,7 +13326,7 @@
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13341,7 +13341,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -13351,7 +13351,7 @@
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13366,7 +13366,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -13376,7 +13376,7 @@
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -13401,7 +13401,7 @@
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13416,7 +13416,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -13426,7 +13426,7 @@
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13441,7 +13441,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -13451,7 +13451,7 @@
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13466,7 +13466,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -13491,7 +13491,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -13526,7 +13526,7 @@
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13541,7 +13541,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -13551,7 +13551,7 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13566,7 +13566,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13591,7 +13591,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13616,7 +13616,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -13626,7 +13626,7 @@
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13641,7 +13641,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -13651,7 +13651,7 @@
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13666,7 +13666,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13691,7 +13691,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -13701,7 +13701,7 @@
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13716,7 +13716,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -13726,7 +13726,7 @@
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13741,7 +13741,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -13751,7 +13751,7 @@
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13766,7 +13766,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -13776,7 +13776,7 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13791,7 +13791,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13816,7 +13816,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -13826,7 +13826,7 @@
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13841,7 +13841,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -13851,7 +13851,7 @@
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13866,7 +13866,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -13891,7 +13891,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -13916,7 +13916,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -13941,7 +13941,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -13966,7 +13966,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -13991,7 +13991,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
@@ -14041,7 +14041,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -14066,7 +14066,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -14091,7 +14091,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
@@ -14116,7 +14116,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -14141,7 +14141,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
@@ -14166,7 +14166,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
@@ -14191,7 +14191,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>批量旅客检索页面加载</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -14201,7 +14201,7 @@
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>业务信息查询</t>
+          <t>业务信息查询入口</t>
         </is>
       </c>
     </row>
@@ -14266,7 +14266,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -14291,7 +14291,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -14316,7 +14316,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -14341,7 +14341,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
@@ -14366,7 +14366,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -14391,7 +14391,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
@@ -14416,7 +14416,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
@@ -14441,7 +14441,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -14491,7 +14491,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -14516,7 +14516,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -14541,7 +14541,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
@@ -14566,7 +14566,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
@@ -14591,7 +14591,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
@@ -14616,7 +14616,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
@@ -14641,7 +14641,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
@@ -14666,7 +14666,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
@@ -14691,7 +14691,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
@@ -14716,7 +14716,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
@@ -14741,7 +14741,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
@@ -14766,7 +14766,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
@@ -14791,7 +14791,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -14816,7 +14816,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -14841,7 +14841,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
@@ -14866,7 +14866,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
@@ -14891,7 +14891,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
@@ -14916,7 +14916,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
@@ -14941,7 +14941,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
@@ -14966,7 +14966,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
@@ -14991,7 +14991,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
@@ -15041,7 +15041,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
@@ -15066,7 +15066,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>批量旅客检索页面加载</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
@@ -15076,7 +15076,7 @@
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>业务信息查询</t>
+          <t>业务信息查询入口</t>
         </is>
       </c>
     </row>
@@ -15116,7 +15116,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
@@ -15141,7 +15141,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
@@ -15166,7 +15166,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
@@ -15191,7 +15191,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
@@ -15216,7 +15216,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
@@ -15241,7 +15241,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
@@ -15266,7 +15266,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
@@ -15291,7 +15291,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
@@ -15316,7 +15316,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
@@ -15341,7 +15341,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -15366,7 +15366,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
@@ -15391,7 +15391,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
@@ -15416,7 +15416,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
@@ -15441,7 +15441,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
@@ -15466,7 +15466,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
@@ -15491,7 +15491,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
@@ -15516,7 +15516,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
@@ -15541,7 +15541,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
@@ -15566,7 +15566,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
@@ -15591,7 +15591,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
@@ -15616,7 +15616,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询-刷新</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
@@ -15641,7 +15641,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
@@ -15666,7 +15666,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
@@ -15691,7 +15691,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
@@ -15741,7 +15741,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
@@ -15766,7 +15766,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
@@ -15791,7 +15791,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
@@ -15816,7 +15816,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
@@ -15841,7 +15841,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
@@ -15866,7 +15866,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
@@ -15916,7 +15916,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D620" t="inlineStr">
@@ -15941,7 +15941,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
@@ -15966,7 +15966,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
@@ -15991,7 +15991,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
@@ -16016,7 +16016,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
@@ -16041,7 +16041,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
@@ -16066,7 +16066,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
@@ -16091,7 +16091,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D627" t="inlineStr">
@@ -16116,7 +16116,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
@@ -16141,7 +16141,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
@@ -16166,7 +16166,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
@@ -16191,7 +16191,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
@@ -16241,7 +16241,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
@@ -16266,7 +16266,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D634" t="inlineStr">
@@ -16291,7 +16291,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
@@ -16301,7 +16301,7 @@
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -16316,7 +16316,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
@@ -16326,7 +16326,7 @@
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -16341,7 +16341,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
@@ -16351,7 +16351,7 @@
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -16366,7 +16366,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
@@ -16376,7 +16376,7 @@
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -16391,7 +16391,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
@@ -16401,7 +16401,7 @@
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -16416,7 +16416,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
@@ -16426,7 +16426,7 @@
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D641" t="inlineStr">
@@ -16451,7 +16451,7 @@
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -16466,7 +16466,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
@@ -16476,7 +16476,7 @@
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -16491,7 +16491,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D643" t="inlineStr">
@@ -16501,7 +16501,7 @@
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -16516,7 +16516,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
@@ -16526,7 +16526,7 @@
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -16541,7 +16541,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
@@ -16566,7 +16566,7 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
@@ -16591,7 +16591,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
@@ -16616,7 +16616,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
@@ -16641,7 +16641,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
@@ -16666,7 +16666,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
@@ -16691,7 +16691,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
@@ -16716,7 +16716,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D652" t="inlineStr">
@@ -16741,7 +16741,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D653" t="inlineStr">
@@ -16766,7 +16766,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D654" t="inlineStr">
@@ -16791,7 +16791,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D655" t="inlineStr">
@@ -16816,7 +16816,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D656" t="inlineStr">
@@ -16841,7 +16841,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询-刷新</t>
         </is>
       </c>
       <c r="D657" t="inlineStr">
@@ -16866,7 +16866,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>座位图/锁放按钮</t>
         </is>
       </c>
       <c r="D658" t="inlineStr">
@@ -16876,7 +16876,7 @@
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>座位锁放</t>
+          <t>座位锁放入口</t>
         </is>
       </c>
     </row>
@@ -16891,7 +16891,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>从其他页面返回检索页刷新</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
@@ -16916,7 +16916,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>座位图/锁放按钮</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
@@ -16926,7 +16926,7 @@
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>座位锁放</t>
+          <t>座位锁放入口</t>
         </is>
       </c>
     </row>
@@ -16941,7 +16941,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>从其他页面返回检索页刷新</t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
@@ -16966,7 +16966,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D662" t="inlineStr">
@@ -16976,7 +16976,7 @@
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>旅客详情</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -16991,7 +16991,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>座位图/锁放按钮</t>
         </is>
       </c>
       <c r="D663" t="inlineStr">
@@ -17001,7 +17001,7 @@
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>座位锁放</t>
+          <t>座位锁放入口</t>
         </is>
       </c>
     </row>
@@ -17016,7 +17016,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>从其他页面返回检索页刷新</t>
         </is>
       </c>
       <c r="D664" t="inlineStr">
@@ -17041,7 +17041,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D665" t="inlineStr">
@@ -17066,7 +17066,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D666" t="inlineStr">
@@ -17116,7 +17116,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D668" t="inlineStr">
@@ -17141,7 +17141,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D669" t="inlineStr">
@@ -17166,7 +17166,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D670" t="inlineStr">
@@ -17191,7 +17191,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
@@ -17216,7 +17216,7 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D672" t="inlineStr">
@@ -17241,7 +17241,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D673" t="inlineStr">
@@ -17266,7 +17266,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D674" t="inlineStr">
@@ -17291,7 +17291,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询-刷新</t>
         </is>
       </c>
       <c r="D675" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D676" t="inlineStr">
@@ -17341,7 +17341,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D677" t="inlineStr">
@@ -17366,7 +17366,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D678" t="inlineStr">
@@ -17391,7 +17391,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D679" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D680" t="inlineStr">
@@ -17441,7 +17441,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D681" t="inlineStr">
@@ -17466,7 +17466,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D682" t="inlineStr">
@@ -17491,7 +17491,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D683" t="inlineStr">
@@ -17516,7 +17516,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
@@ -17541,7 +17541,7 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D685" t="inlineStr">
@@ -17566,7 +17566,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D686" t="inlineStr">
@@ -17591,7 +17591,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D687" t="inlineStr">
@@ -17616,7 +17616,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D688" t="inlineStr">
@@ -17641,7 +17641,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D689" t="inlineStr">
@@ -17666,7 +17666,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D690" t="inlineStr">
@@ -17691,7 +17691,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
@@ -17716,7 +17716,7 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D692" t="inlineStr">
@@ -17741,7 +17741,7 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D693" t="inlineStr">
@@ -17766,7 +17766,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D694" t="inlineStr">
@@ -17791,7 +17791,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D695" t="inlineStr">
@@ -17816,7 +17816,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D696" t="inlineStr">
@@ -17841,7 +17841,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D697" t="inlineStr">
@@ -17866,7 +17866,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D698" t="inlineStr">
@@ -17891,7 +17891,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D699" t="inlineStr">
@@ -17916,7 +17916,7 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
@@ -17941,7 +17941,7 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D701" t="inlineStr">
@@ -17966,7 +17966,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D702" t="inlineStr">
@@ -17991,7 +17991,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
@@ -18016,7 +18016,7 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D704" t="inlineStr">
@@ -18041,7 +18041,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D705" t="inlineStr">
@@ -18066,7 +18066,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D706" t="inlineStr">
@@ -18091,7 +18091,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D707" t="inlineStr">
@@ -18116,7 +18116,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D708" t="inlineStr">
@@ -18141,7 +18141,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D709" t="inlineStr">
@@ -18166,7 +18166,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D710" t="inlineStr">
@@ -18191,7 +18191,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D711" t="inlineStr">
@@ -18216,7 +18216,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>批量旅客检索页面加载</t>
         </is>
       </c>
       <c r="D712" t="inlineStr">
@@ -18226,7 +18226,7 @@
       </c>
       <c r="E712" t="inlineStr">
         <is>
-          <t>业务信息查询</t>
+          <t>业务信息查询入口</t>
         </is>
       </c>
     </row>
@@ -18266,7 +18266,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D714" t="inlineStr">
@@ -18291,7 +18291,7 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D715" t="inlineStr">
@@ -18316,7 +18316,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D716" t="inlineStr">
@@ -18341,7 +18341,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D717" t="inlineStr">
@@ -18366,7 +18366,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D718" t="inlineStr">
@@ -18391,7 +18391,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D720" t="inlineStr">
@@ -18441,7 +18441,7 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D721" t="inlineStr">
@@ -18466,7 +18466,7 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D722" t="inlineStr">
@@ -18491,7 +18491,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D723" t="inlineStr">
@@ -18516,7 +18516,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D724" t="inlineStr">
@@ -18541,7 +18541,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D725" t="inlineStr">
@@ -18566,7 +18566,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D726" t="inlineStr">
@@ -18591,7 +18591,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D727" t="inlineStr">
@@ -18616,7 +18616,7 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D728" t="inlineStr">
@@ -18641,7 +18641,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D729" t="inlineStr">
@@ -18666,7 +18666,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D730" t="inlineStr">
@@ -18691,7 +18691,7 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D731" t="inlineStr">
@@ -18716,7 +18716,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D732" t="inlineStr">
@@ -18741,7 +18741,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D733" t="inlineStr">
@@ -18766,7 +18766,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D734" t="inlineStr">
@@ -18816,7 +18816,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D736" t="inlineStr">
@@ -18866,7 +18866,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D738" t="inlineStr">
@@ -18891,7 +18891,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>批量旅客检索页面加载</t>
         </is>
       </c>
       <c r="D739" t="inlineStr">
@@ -18901,7 +18901,7 @@
       </c>
       <c r="E739" t="inlineStr">
         <is>
-          <t>业务信息查询</t>
+          <t>业务信息查询入口</t>
         </is>
       </c>
     </row>
@@ -18941,7 +18941,7 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D741" t="inlineStr">
@@ -18966,7 +18966,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D742" t="inlineStr">
@@ -18991,7 +18991,7 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D743" t="inlineStr">
@@ -19041,7 +19041,7 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>批量旅客检索页面加载</t>
         </is>
       </c>
       <c r="D745" t="inlineStr">
@@ -19051,7 +19051,7 @@
       </c>
       <c r="E745" t="inlineStr">
         <is>
-          <t>业务信息查询</t>
+          <t>业务信息查询入口</t>
         </is>
       </c>
     </row>
@@ -19091,7 +19091,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D747" t="inlineStr">
@@ -19101,7 +19101,7 @@
       </c>
       <c r="E747" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -19141,7 +19141,7 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D749" t="inlineStr">
@@ -19151,7 +19151,7 @@
       </c>
       <c r="E749" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -19166,7 +19166,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D750" t="inlineStr">
@@ -19176,7 +19176,7 @@
       </c>
       <c r="E750" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -19191,7 +19191,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D751" t="inlineStr">
@@ -19201,7 +19201,7 @@
       </c>
       <c r="E751" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -19216,7 +19216,7 @@
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D752" t="inlineStr">
@@ -19266,7 +19266,7 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D754" t="inlineStr">
@@ -19291,7 +19291,7 @@
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>批量旅客检索页面加载</t>
         </is>
       </c>
       <c r="D755" t="inlineStr">
@@ -19301,7 +19301,7 @@
       </c>
       <c r="E755" t="inlineStr">
         <is>
-          <t>业务信息查询</t>
+          <t>业务信息查询入口</t>
         </is>
       </c>
     </row>
@@ -19366,7 +19366,7 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D758" t="inlineStr">
@@ -19376,7 +19376,7 @@
       </c>
       <c r="E758" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -19391,7 +19391,7 @@
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D759" t="inlineStr">
@@ -19416,7 +19416,7 @@
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D760" t="inlineStr">
@@ -19441,7 +19441,7 @@
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D761" t="inlineStr">
@@ -19466,7 +19466,7 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D762" t="inlineStr">
@@ -19491,7 +19491,7 @@
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D763" t="inlineStr">
@@ -19516,7 +19516,7 @@
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D764" t="inlineStr">
@@ -19541,7 +19541,7 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D765" t="inlineStr">
@@ -19566,7 +19566,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D766" t="inlineStr">
@@ -19591,7 +19591,7 @@
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D767" t="inlineStr">
@@ -19616,7 +19616,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D768" t="inlineStr">
@@ -19641,7 +19641,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D769" t="inlineStr">
@@ -19666,7 +19666,7 @@
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D770" t="inlineStr">
@@ -19691,7 +19691,7 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D771" t="inlineStr">
@@ -19716,7 +19716,7 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D772" t="inlineStr">
@@ -19741,7 +19741,7 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D773" t="inlineStr">
@@ -19766,7 +19766,7 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D774" t="inlineStr">
@@ -19791,7 +19791,7 @@
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D775" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D776" t="inlineStr">
@@ -19841,7 +19841,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D777" t="inlineStr">
@@ -19866,7 +19866,7 @@
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D778" t="inlineStr">
@@ -19891,7 +19891,7 @@
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D779" t="inlineStr">
@@ -19916,7 +19916,7 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D780" t="inlineStr">
@@ -19941,7 +19941,7 @@
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D781" t="inlineStr">
@@ -19966,7 +19966,7 @@
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客提取页签检索按钮</t>
         </is>
       </c>
       <c r="D782" t="inlineStr">
@@ -19991,7 +19991,7 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D783" t="inlineStr">
@@ -20001,7 +20001,7 @@
       </c>
       <c r="E783" t="inlineStr">
         <is>
-          <t>旅客详情</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -20016,7 +20016,7 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D784" t="inlineStr">
@@ -20041,7 +20041,7 @@
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D785" t="inlineStr">
@@ -20066,7 +20066,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D786" t="inlineStr">
@@ -20091,7 +20091,7 @@
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D787" t="inlineStr">
@@ -20116,7 +20116,7 @@
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D788" t="inlineStr">
@@ -20141,7 +20141,7 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>序号输入框选中旅客</t>
         </is>
       </c>
       <c r="D789" t="inlineStr">
@@ -20166,7 +20166,7 @@
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D790" t="inlineStr">
@@ -20191,7 +20191,7 @@
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D791" t="inlineStr">
@@ -20216,7 +20216,7 @@
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>座位图/锁放按钮</t>
         </is>
       </c>
       <c r="D792" t="inlineStr">
@@ -20226,7 +20226,7 @@
       </c>
       <c r="E792" t="inlineStr">
         <is>
-          <t>座位锁放</t>
+          <t>座位锁放入口</t>
         </is>
       </c>
     </row>
@@ -20241,7 +20241,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>从其他页面返回检索页刷新</t>
         </is>
       </c>
       <c r="D793" t="inlineStr">
@@ -20266,7 +20266,7 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>提取同行人按钮</t>
         </is>
       </c>
       <c r="D794" t="inlineStr">
@@ -20276,7 +20276,7 @@
       </c>
       <c r="E794" t="inlineStr">
         <is>
-          <t>检索提取</t>
+          <t>同行人提取</t>
         </is>
       </c>
     </row>
@@ -20291,7 +20291,7 @@
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D795" t="inlineStr">
@@ -20316,7 +20316,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D796" t="inlineStr">
@@ -20326,7 +20326,7 @@
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t>旅客详情</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -20341,7 +20341,7 @@
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>座位处理按钮</t>
         </is>
       </c>
       <c r="D797" t="inlineStr">
@@ -20351,7 +20351,7 @@
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t>座位处理</t>
+          <t>座位处理入口</t>
         </is>
       </c>
     </row>
@@ -20366,7 +20366,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>从其他页面返回检索页刷新</t>
         </is>
       </c>
       <c r="D798" t="inlineStr">
@@ -20391,7 +20391,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D799" t="inlineStr">
@@ -20401,7 +20401,7 @@
       </c>
       <c r="E799" t="inlineStr">
         <is>
-          <t>旅客详情</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -20416,7 +20416,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>座位处理按钮</t>
         </is>
       </c>
       <c r="D800" t="inlineStr">
@@ -20426,7 +20426,7 @@
       </c>
       <c r="E800" t="inlineStr">
         <is>
-          <t>座位处理</t>
+          <t>座位处理入口</t>
         </is>
       </c>
     </row>
@@ -20441,7 +20441,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>座位处理-确定按钮</t>
         </is>
       </c>
       <c r="D801" t="inlineStr">
@@ -20466,7 +20466,7 @@
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>从其他页面返回检索页刷新</t>
         </is>
       </c>
       <c r="D802" t="inlineStr">
@@ -20491,7 +20491,7 @@
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>座位处理按钮</t>
         </is>
       </c>
       <c r="D803" t="inlineStr">
@@ -20501,7 +20501,7 @@
       </c>
       <c r="E803" t="inlineStr">
         <is>
-          <t>座位处理</t>
+          <t>座位处理入口</t>
         </is>
       </c>
     </row>
@@ -20516,7 +20516,7 @@
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>从其他页面返回检索页刷新</t>
         </is>
       </c>
       <c r="D804" t="inlineStr">
@@ -20541,7 +20541,7 @@
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D805" t="inlineStr">
@@ -20551,7 +20551,7 @@
       </c>
       <c r="E805" t="inlineStr">
         <is>
-          <t>旅客详情</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -20566,7 +20566,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>座位处理按钮</t>
         </is>
       </c>
       <c r="D806" t="inlineStr">
@@ -20576,7 +20576,7 @@
       </c>
       <c r="E806" t="inlineStr">
         <is>
-          <t>座位处理</t>
+          <t>座位处理入口</t>
         </is>
       </c>
     </row>
@@ -20591,7 +20591,7 @@
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>座位处理-确定按钮</t>
         </is>
       </c>
       <c r="D807" t="inlineStr">
@@ -20616,7 +20616,7 @@
       </c>
       <c r="C808" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>从其他页面返回检索页刷新</t>
         </is>
       </c>
       <c r="D808" t="inlineStr">
@@ -20641,7 +20641,7 @@
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已登机查询按钮</t>
         </is>
       </c>
       <c r="D809" t="inlineStr">
@@ -20651,7 +20651,7 @@
       </c>
       <c r="E809" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>已/未登机查询入口</t>
         </is>
       </c>
     </row>
@@ -20666,7 +20666,7 @@
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D810" t="inlineStr">
@@ -20676,7 +20676,7 @@
       </c>
       <c r="E810" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -20691,7 +20691,7 @@
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已/未登机旅客-查询按钮</t>
         </is>
       </c>
       <c r="D811" t="inlineStr">
@@ -20716,7 +20716,7 @@
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D812" t="inlineStr">
@@ -20726,7 +20726,7 @@
       </c>
       <c r="E812" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -20741,7 +20741,7 @@
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D813" t="inlineStr">
@@ -20751,7 +20751,7 @@
       </c>
       <c r="E813" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -20766,7 +20766,7 @@
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D814" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="E814" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -20791,7 +20791,7 @@
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D815" t="inlineStr">
@@ -20801,7 +20801,7 @@
       </c>
       <c r="E815" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -20816,7 +20816,7 @@
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D816" t="inlineStr">
@@ -20826,7 +20826,7 @@
       </c>
       <c r="E816" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -20841,7 +20841,7 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>已登机旅客-清除按钮</t>
         </is>
       </c>
       <c r="D817" t="inlineStr">
@@ -20866,7 +20866,7 @@
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D818" t="inlineStr">
@@ -20876,7 +20876,7 @@
       </c>
       <c r="E818" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -20891,7 +20891,7 @@
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D819" t="inlineStr">
@@ -20901,7 +20901,7 @@
       </c>
       <c r="E819" t="inlineStr">
         <is>
-          <t>已/未登机查询</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -20916,7 +20916,7 @@
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D820" t="inlineStr">
@@ -20941,7 +20941,7 @@
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D821" t="inlineStr">
@@ -20966,7 +20966,7 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>座位图/锁放按钮</t>
         </is>
       </c>
       <c r="D822" t="inlineStr">
@@ -20976,7 +20976,7 @@
       </c>
       <c r="E822" t="inlineStr">
         <is>
-          <t>座位锁放</t>
+          <t>座位锁放入口</t>
         </is>
       </c>
     </row>
@@ -20991,7 +20991,7 @@
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>从其他页面返回检索页刷新</t>
         </is>
       </c>
       <c r="D823" t="inlineStr">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D824" t="inlineStr">
@@ -21026,7 +21026,7 @@
       </c>
       <c r="E824" t="inlineStr">
         <is>
-          <t>旅客详情</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -21041,7 +21041,7 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D825" t="inlineStr">
@@ -21066,7 +21066,7 @@
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>序号输入框选中旅客</t>
         </is>
       </c>
       <c r="D826" t="inlineStr">
@@ -21091,7 +21091,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>提取同行人按钮</t>
         </is>
       </c>
       <c r="D827" t="inlineStr">
@@ -21101,7 +21101,7 @@
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t>检索提取</t>
+          <t>同行人提取</t>
         </is>
       </c>
     </row>
